--- a/P0022/09_FICHAS/N3-FD-General.xlsx
+++ b/P0022/09_FICHAS/N3-FD-General.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0022\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD5C3C-7092-4D51-B253-A212C2669F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{F2FD5C3C-7092-4D51-B253-A212C2669F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE49B1D1-C863-41E0-8C89-D64355063CFD}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,7 +98,7 @@
     <t>MAGANGUE</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022_New/02_PRODUCTOS/PLANOS/MAGANGUE</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/PLANOS/MAGANGUE</t>
   </si>
   <si>
     <t xml:space="preserve">Resultados de los informes generados para Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos , Sucre y Magangué (Bolivar). </t>
@@ -99,19 +110,16 @@
     <t>Planos</t>
   </si>
   <si>
-    <t>.pdf, .dwg</t>
+    <t>pdf</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los planos corresponden a información obtenida para poder realizar los informes relacionados a la elaboración de los diseños de detalle de las estructuras de protección para los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). Sin embargo, no es claro cada plano exactamente a que anexo de que informe hace referencia. </t>
   </si>
   <si>
-    <t>Levantamiento batimétrico Levantamiento Topográfico, Planos, Magangué.</t>
+    <t>Levantamiento batimétrico, levantamiento topográfico, planos, Magangué.</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -123,13 +131,16 @@
     <t>SAN MARCOS</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022_New/02_PRODUCTOS/PLANOS/SAN MARCOS</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/PLANOS/SAN MARCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados de los informes generados para elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos , Sucre y Magangué (Bolivar). </t>
   </si>
   <si>
     <t>Planos relacionados a la localización del municipio de San Marcos, levantamientos topográficos y batimétricos</t>
   </si>
   <si>
-    <t>Levantamiento batimétrico Levantamiento Topográfico, Planos, San Marcos.</t>
+    <t>Levantamiento batimétrico, levantamiento topográfico, planos, San Marcos.</t>
   </si>
   <si>
     <t>PR0007</t>
@@ -141,10 +152,10 @@
     <t>ANEXO_GEOFISICA_MGV1</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022_New/02_PRODUCTOS/GEOTECNIA/ANEXO_GEOFISICA_MGV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados asociados a información geofísica realizada para el municipio de San Marcos para  elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre y Magangué (Bolivar). </t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados asociados a información geofísica realizada para el municipio de San Marcos para elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre y Magangué (Bolivar). </t>
   </si>
   <si>
     <t>Informe de anexos geofísicos del municipio de Magangué, incluye datos  de tomografias sísmicas, caracterización y perfil del suelo y registro fotográfico</t>
@@ -156,7 +167,7 @@
     <t xml:space="preserve">El informe esta marcado como anexo Geotécnico, sin embargo  no se relaciona en el informe geotécnico y adicionalmente hace referencia a datos geofísicos </t>
   </si>
   <si>
-    <t>Tomografía sísmica, Suelo, Refracción sísmica, Estructura de protección, MASW, Subsuelo.</t>
+    <t>Tomografía sísmica, suelo, refracción sísmica, estructura de protección, MASW, Subsuelo.</t>
   </si>
   <si>
     <t>PR0008</t>
@@ -168,20 +179,20 @@
     <t>ANEXO_GEOFISICA_SMV1</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022_New/02_PRODUCTOS/GEOTECNIA/ANEXO_GEOFISICA_SMV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados asociados a información geofísica realizada para el municipio de Magangué para  Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre y Magangué (Bolivar). </t>
-  </si>
-  <si>
-    <t>Informe de anexos geofísicos del municipio de San marcos, incluye datos  de tomografias sísmicas, caracterización y perfil del suelo y registro fotográfico</t>
+    <t>Resultados asociados al Informe de exploración Geotécnica de San Marcos(IT-445-GEO-SM)</t>
+  </si>
+  <si>
+    <t>Informe de anexos geofísicos del municipio de San Marcos, incluye datos  de tomografias sísmicas, caracterización y perfil del suelo y registro fotográfico.</t>
+  </si>
+  <si>
+    <t>El documento es útil para aspectos feonomenológicos desde la geofísica.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,12 +522,16 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -607,36 +622,36 @@
         <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -657,16 +672,16 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -707,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>42</v>
@@ -716,7 +731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,16 +745,16 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
         <v>2019</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>41</v>
@@ -757,10 +772,10 @@
         <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>43</v>
